--- a/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
+++ b/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF90BD7-921D-4BA1-B6C2-061081F77A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6290BA93-01E3-4621-9217-71BE5879D073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
   </bookViews>
   <sheets>
     <sheet name="URB_2040" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>Scenario</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>5251-Coldrerio</t>
+  </si>
+  <si>
+    <t>place holder</t>
   </si>
 </sst>
 </file>
@@ -969,12 +972,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA055A38-203B-4EBE-B8B5-3F1E40584E02}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.64644746430453903</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.35355253569546002</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6.0523204411767704E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.8457666307559502E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.16743213189942399</v>
+      </c>
+      <c r="J2" s="4">
+        <v>5.77049483284717E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>6.5941312232113399E-4</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2.7174540773361299E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>6.4758988703875198E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>2.4822493967629898E-3</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.662086298915746</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.337913701084253</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.81020521892636E-3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.12277604694565E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4.9515096887120198E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5.6625014492862003E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3.4225594955361899E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>6.5825644324595204E-3</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>3.1248480587045002E-2</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2.9400874433843299E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.89291024538475605</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.107089754615243</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.7380646347647199E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.14099663062637999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.16720841637582401</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.258163626367298</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7.5080937406548101E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.4144013789542297E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.6060944056138799E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4.5405281409564603E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2.1173977811170201E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -985,7 +1251,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -995,13 +1261,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EF390C-5D18-4C06-8417-2F2FC409C172}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +1397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1196,7 +1462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1282,7 +1548,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1303,7 +1569,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1330,7 +1596,7 @@
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
@@ -1342,7 +1608,7 @@
     <col min="21" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1738,7 @@
         <v>5113</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1537,7 +1803,7 @@
         <v>5251</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1602,7 +1868,7 @@
         <v>5118</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1617,7 +1883,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1632,7 +1898,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.75">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1647,7 +1913,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.75">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1673,7 +1939,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1685,7 +1951,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
+++ b/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6290BA93-01E3-4621-9217-71BE5879D073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DAC8B-0466-4ACE-9092-D06E7D9E3028}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="3" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
   </bookViews>
   <sheets>
     <sheet name="URB_2040" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>Scenario</t>
   </si>
@@ -52,9 +52,6 @@
     <t>BAU</t>
   </si>
   <si>
-    <t>BAL</t>
-  </si>
-  <si>
     <t>HOTEL</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>place holder</t>
+  </si>
+  <si>
+    <t>BLN</t>
   </si>
 </sst>
 </file>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA055A38-203B-4EBE-B8B5-3F1E40584E02}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -991,253 +991,253 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.64644746430453903</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.35355253569546002</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>6.0523204411767704E-3</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2.8457666307559502E-2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.16743213189942399</v>
-      </c>
-      <c r="J2" s="4">
-        <v>5.77049483284717E-2</v>
-      </c>
-      <c r="K2" s="4">
-        <v>6.5941312232113399E-4</v>
-      </c>
-      <c r="L2" s="4">
-        <v>2.7174540773361299E-3</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>6.4758988703875198E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>2.4822493967629898E-3</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>27</v>
+      <c r="B2" s="2">
+        <v>0.94945834615536995</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.0541653844629997E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7.1667755230449704E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.50312257317129805</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.6167862352490799E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.132569175701162</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.8592946246905499E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4.3524844132144897E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4.4886222787290098E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>7.8355620649921798E-2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>8.8907992564043192E-3</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.662086298915746</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.337913701084253</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.81020521892636E-3</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1.12277604694565E-2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4.9515096887120198E-2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>5.6625014492862003E-2</v>
-      </c>
-      <c r="J3" s="4">
-        <v>3.4225594955361899E-2</v>
-      </c>
-      <c r="K3" s="4">
-        <v>6.5825644324595204E-3</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>3.1248480587045002E-2</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>2.9400874433843299E-2</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.94945834615536995</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.0541653844629997E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.1667755230449704E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.50312257317129805</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.6167862352490799E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.132569175701162</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.8592946246905499E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.3524844132144897E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4.4886222787290098E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>7.8355620649921798E-2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>8.8907992564043192E-3</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.89291024538475605</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.107089754615243</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.7380646347647199E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.14099663062637999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.16720841637582401</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.258163626367298</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7.5080937406548101E-2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5.4144013789542297E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1.6060944056138799E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>4.5405281409564603E-2</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>2.1173977811170201E-2</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.94945834615536995</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.0541653844629997E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.1667755230449704E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.50312257317129805</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.6167862352490799E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.132569175701162</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.8592946246905499E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.3524844132144897E-3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4.4886222787290098E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>7.8355620649921798E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>8.8907992564043192E-3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -1247,12 +1247,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D27812-FE16-407B-9C0C-60BB6E9CD594}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.94945834615536995</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.0541653844629997E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7.1667755230449704E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.50312257317129805</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.6167862352490799E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.132569175701162</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.8592946246905499E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4.3524844132144897E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4.4886222787290098E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>7.8355620649921798E-2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>8.8907992564043192E-3</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.94945834615536995</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.0541653844629997E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.1667755230449704E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.6167862352490799E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.132569175701162</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.8592946246905499E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.3524844132144897E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4.4886222787290098E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>7.8355620649921798E-2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>8.8907992564043192E-3</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.94945834615536995</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.0541653844629997E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.1667755230449704E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.50312257317129805</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.6167862352490799E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.132569175701162</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.8592946246905499E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.3524844132144897E-3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4.4886222787290098E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>7.8355620649921798E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>8.8907992564043192E-3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1261,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EF390C-5D18-4C06-8417-2F2FC409C172}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:U4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1278,58 +1541,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1394,12 +1657,12 @@
         <v>0</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4">
         <v>0.662086298915746</v>
@@ -1459,12 +1722,12 @@
         <v>0</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>0.89291024538475605</v>
@@ -1524,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -1592,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64753808-C4EA-4FBA-BF59-222E51F57A4F}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1619,208 +1882,208 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.89158984266478303</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.108410157335216</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.99933477253553E-2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5.1917817646114202E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3.5435469112800599E-2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5.2132423594420198E-2</v>
-      </c>
-      <c r="J2" s="2">
-        <v>3.7759942092076601E-2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.3804107078682799E-2</v>
-      </c>
-      <c r="L2" s="2">
-        <v>8.0897776712960702E-4</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>6.8867609539514704E-3</v>
+      <c r="B2" s="4">
+        <v>0.64644746430453903</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.35355253569546002</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6.0523204411767704E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.8457666307559502E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.16743213189942399</v>
+      </c>
+      <c r="J2" s="4">
+        <v>5.77049483284717E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>6.5941312232113399E-4</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2.7174540773361299E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>6.4758988703875198E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>2.4822493967629898E-3</v>
       </c>
       <c r="T2" s="1">
         <v>0</v>
       </c>
-      <c r="U2" s="1">
-        <v>5113</v>
+      <c r="U2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4">
         <v>0.662086298915746</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>0.337913701084253</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>1.81020521892636E-3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>1.12277604694565E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>4.9515096887120198E-2</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>5.6625014492862003E-2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>3.4225594955361899E-2</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>6.5825644324595204E-3</v>
       </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>3.1248480587045002E-2</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
         <v>2.9400874433843299E-2</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
       </c>
-      <c r="U3" s="1">
-        <v>5251</v>
+      <c r="U3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.64644746430453903</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.35355253569546002</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6.0523204411767704E-3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.8457666307559502E-2</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.89291024538475605</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.107089754615243</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.7380646347647199E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.14099663062637999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.16720841637582401</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -1828,17 +2091,17 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
-        <v>0.16743213189942399</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5.77049483284717E-2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>6.5941312232113399E-4</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2.7174540773361299E-3</v>
+      <c r="I4" s="1">
+        <v>0.258163626367298</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7.5080937406548101E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.4144013789542297E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.6060944056138799E-2</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1847,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>4.5405281409564603E-2</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -1858,15 +2121,55 @@
       <c r="R4" s="1">
         <v>0</v>
       </c>
-      <c r="S4" s="2">
-        <v>2.4822493967629898E-3</v>
+      <c r="S4" s="1">
+        <v>2.1173977811170201E-2</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
       </c>
-      <c r="U4" s="1">
-        <v>5118</v>
-      </c>
+      <c r="U4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
@@ -1937,7 +2240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF5F5E8-3230-403E-9E7C-AC711AEAABE3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
+++ b/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DAC8B-0466-4ACE-9092-D06E7D9E3028}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22C4DA8-DDAF-4F13-B8E2-49E47C6B1C5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="3" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
   </bookViews>
   <sheets>
     <sheet name="URB_2040" sheetId="3" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>DCL</t>
-  </si>
-  <si>
     <t>371-Biel</t>
   </si>
   <si>
@@ -121,7 +118,10 @@
     <t>place holder</t>
   </si>
   <si>
-    <t>BLN</t>
+    <t>DGT</t>
+  </si>
+  <si>
+    <t>PCN</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>0.94945834615536995</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>0.94945834615536995</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1524,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EF390C-5D18-4C06-8417-2F2FC409C172}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1657,12 +1657,12 @@
         <v>0</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4">
         <v>0.662086298915746</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -1855,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64753808-C4EA-4FBA-BF59-222E51F57A4F}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1998,12 +1998,12 @@
         <v>0</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4">
         <v>0.662086298915746</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -2254,7 +2254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523C6DC8-E5AC-4E32-B877-8A8AF64848B7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
+++ b/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22C4DA8-DDAF-4F13-B8E2-49E47C6B1C5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D7E1BA-D48F-43E7-984F-1F6D103AB378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
   </bookViews>
@@ -121,7 +121,7 @@
     <t>DGT</t>
   </si>
   <si>
-    <t>PCN</t>
+    <t>PUN</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1856,7 +1856,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2241,7 +2241,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2255,7 +2255,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
+++ b/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D7E1BA-D48F-43E7-984F-1F6D103AB378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D712D0A-5948-4C6B-9C03-A58463FF6297}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
   </bookViews>
   <sheets>
     <sheet name="URB_2040" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
   <si>
     <t>Scenario</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>PUN</t>
+  </si>
+  <si>
+    <t>3871-Klosters-Serneus</t>
+  </si>
+  <si>
+    <t>SECONDARY_RES</t>
+  </si>
+  <si>
+    <t>place-holder</t>
   </si>
 </sst>
 </file>
@@ -975,7 +984,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2238,14 +2247,293 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF5F5E8-3230-403E-9E7C-AC711AEAABE3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.23108195768918199</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.38686405146896702</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.38205399084184999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.6646807576113202E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.6342989499780301E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.5570572178525401E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.33903020185543298</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.6835319398836101E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3.7914274791353798E-3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.119932655617689</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1.16452677067942E-2</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.79631712669015731</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.20368287330984264</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.0260787952819093E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.6001254746840204E-3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6.1438286293753683E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7.3730978652184392E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.7383178134777463E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5.9766633200037389E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>6.1810883670063927E-3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2.5160393100302197E-2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1.4155679239981914E-2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.23108195768918199</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.38686405146896702</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.38205399084184999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.6646807576113202E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.6342989499780301E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.5570572178525401E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.33903020185543298</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.6835319398836101E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3.7914274791353798E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.119932655617689</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.16452677067942E-2</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E8" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2254,7 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523C6DC8-E5AC-4E32-B877-8A8AF64848B7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>

--- a/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
+++ b/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D712D0A-5948-4C6B-9C03-A58463FF6297}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D7E1BA-D48F-43E7-984F-1F6D103AB378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
   </bookViews>
   <sheets>
     <sheet name="URB_2040" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>Scenario</t>
   </si>
@@ -122,15 +122,6 @@
   </si>
   <si>
     <t>PUN</t>
-  </si>
-  <si>
-    <t>3871-Klosters-Serneus</t>
-  </si>
-  <si>
-    <t>SECONDARY_RES</t>
-  </si>
-  <si>
-    <t>place-holder</t>
   </si>
 </sst>
 </file>
@@ -984,7 +975,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2247,293 +2238,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF5F5E8-3230-403E-9E7C-AC711AEAABE3}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.23108195768918199</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.38686405146896702</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.38205399084184999</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3.6646807576113202E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2.6342989499780301E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.5570572178525401E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.33903020185543298</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.6835319398836101E-2</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>3.7914274791353798E-3</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.119932655617689</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1.16452677067942E-2</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.79631712669015731</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.20368287330984264</v>
-      </c>
-      <c r="D3" s="2">
-        <v>7.0260787952819093E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.6001254746840204E-3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6.1438286293753683E-3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>7.3730978652184392E-2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1.7383178134777463E-2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>5.9766633200037389E-3</v>
-      </c>
-      <c r="L3" s="2">
-        <v>6.1810883670063927E-3</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>2.5160393100302197E-2</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1.4155679239981914E-2</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.23108195768918199</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.38686405146896702</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.38205399084184999</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.6646807576113202E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.6342989499780301E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.5570572178525401E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.33903020185543298</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1.6835319398836101E-2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>3.7914274791353798E-3</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.119932655617689</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1.16452677067942E-2</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E8" s="2"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2542,7 +2254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523C6DC8-E5AC-4E32-B877-8A8AF64848B7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>

--- a/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
+++ b/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D712D0A-5948-4C6B-9C03-A58463FF6297}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F911AB-B683-47BD-B130-00FD07EA59BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
   <si>
     <t>Scenario</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>5251-Coldrerio</t>
-  </si>
-  <si>
-    <t>place holder</t>
   </si>
   <si>
     <t>DGT</t>
@@ -984,10 +981,24 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -1121,7 +1132,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>0.94945834615536995</v>
@@ -1180,13 +1191,13 @@
       <c r="T3" s="2">
         <v>0</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>25</v>
+      <c r="U3" s="2">
+        <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>0.94945834615536995</v>
@@ -1259,10 +1270,24 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -1396,7 +1421,7 @@
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>0.94945834615536995</v>
@@ -1408,7 +1433,7 @@
         <v>7.1667755230449704E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>0.4</v>
+        <v>0.50312257317129805</v>
       </c>
       <c r="F3" s="2">
         <v>1.6167862352490799E-2</v>
@@ -1455,13 +1480,13 @@
       <c r="T3" s="2">
         <v>0</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>25</v>
+      <c r="U3" s="2">
+        <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>0.94945834615536995</v>
@@ -1534,10 +1559,25 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -1671,7 +1711,7 @@
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4">
         <v>0.662086298915746</v>
@@ -1736,7 +1776,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>0.89291024538475605</v>
@@ -1865,19 +1905,26 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="20" width="8.81640625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="1"/>
+    <col min="9" max="12" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
@@ -2012,7 +2059,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4">
         <v>0.662086298915746</v>
@@ -2077,7 +2124,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>0.89291024538475605</v>
@@ -2250,12 +2297,26 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="21.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -2269,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -2396,7 +2457,7 @@
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>0.79631712669015731</v>
@@ -2459,12 +2520,12 @@
         <v>0</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>0.23108195768918199</v>
@@ -2527,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
@@ -2540,14 +2601,287 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523C6DC8-E5AC-4E32-B877-8A8AF64848B7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.23108195768918199</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.38686405146896702</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.38205399084184999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.6646807576113202E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.6342989499780301E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.5570572178525401E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.33903020185543298</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.6835319398836101E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3.7914274791353798E-3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.119932655617689</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1.16452677067942E-2</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.79631712669015731</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.20368287330984264</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.0260787952819093E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.6001254746840204E-3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6.1438286293753683E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7.3730978652184392E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.7383178134777463E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5.9766633200037389E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>6.1810883670063927E-3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2.5160393100302197E-2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1.4155679239981914E-2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.23108195768918199</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.38686405146896702</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.38205399084184999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.6646807576113202E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.6342989499780301E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.5570572178525401E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.33903020185543298</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.6835319398836101E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3.7914274791353798E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.119932655617689</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.16452677067942E-2</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
+++ b/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F911AB-B683-47BD-B130-00FD07EA59BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F3EB8-09BB-4344-8121-18CCDC94F2F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
   </bookViews>
   <sheets>
     <sheet name="URB_2040" sheetId="3" r:id="rId1"/>
@@ -2296,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF5F5E8-3230-403E-9E7C-AC711AEAABE3}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2460,22 +2460,22 @@
         <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>0.79631712669015731</v>
+        <v>0.94574860576652053</v>
       </c>
       <c r="C3" s="2">
-        <v>0.20368287330984264</v>
+        <v>5.4251394233479508E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>7.0260787952819093E-2</v>
+        <v>0.38205399084184999</v>
       </c>
       <c r="E3" s="2">
-        <v>2.6001254746840204E-3</v>
+        <v>8.7065730983407058E-2</v>
       </c>
       <c r="F3" s="2">
-        <v>6.1438286293753683E-3</v>
+        <v>7.4216441828465984E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>5.2157173072867611E-3</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -2499,11 +2499,11 @@
         <v>0</v>
       </c>
       <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
         <v>2.5160393100302197E-2</v>
       </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
       <c r="Q3" s="2">
         <v>0</v>
       </c>
@@ -2511,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
         <v>1.4155679239981914E-2</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
@@ -2603,11 +2603,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523C6DC8-E5AC-4E32-B877-8A8AF64848B7}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -2750,22 +2763,22 @@
         <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>0.79631712669015731</v>
+        <v>0.94574860576652053</v>
       </c>
       <c r="C3" s="2">
-        <v>0.20368287330984264</v>
+        <v>5.4251394233479508E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>7.0260787952819093E-2</v>
+        <v>0.38205399084184999</v>
       </c>
       <c r="E3" s="2">
-        <v>2.6001254746840204E-3</v>
+        <v>8.7065730983407058E-2</v>
       </c>
       <c r="F3" s="2">
-        <v>6.1438286293753683E-3</v>
+        <v>7.4216441828465984E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>5.2157173072867611E-3</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -2789,11 +2802,11 @@
         <v>0</v>
       </c>
       <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
         <v>2.5160393100302197E-2</v>
       </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
       <c r="Q3" s="2">
         <v>0</v>
       </c>
@@ -2801,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
         <v>1.4155679239981914E-2</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>

--- a/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
+++ b/remap_ville_plugin/mapping_BUILDING_USE_RATIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F3EB8-09BB-4344-8121-18CCDC94F2F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A48D5CF-DF93-4BDE-897C-92E8D3DE71C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="5" xr2:uid="{1C1C4709-675E-44E3-8DFB-69CCE1239E02}"/>
   </bookViews>
   <sheets>
     <sheet name="URB_2040" sheetId="3" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <t>SECONDARY_RES</t>
   </si>
   <si>
-    <t>place-holder</t>
+    <t>6110-Leuk</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -1000,7 +1000,7 @@
     <col min="20" max="21" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1273,7 +1273,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -1289,7 +1289,7 @@
     <col min="20" max="21" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,7 +1562,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -1579,7 +1579,7 @@
     <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1860,7 +1860,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.75">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1881,7 +1881,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.75">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1908,7 +1908,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
@@ -1927,7 +1927,7 @@
     <col min="22" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.75">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2207,7 +2207,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2227,7 +2227,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.75">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2242,7 +2242,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.75">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2257,7 +2257,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.75">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2272,7 +2272,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.75">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2294,13 +2294,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF5F5E8-3230-403E-9E7C-AC711AEAABE3}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="21.26953125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -2319,7 +2319,7 @@
     <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2523,27 +2523,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.23108195768918199</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.38686405146896702</v>
+      <c r="B4">
+        <v>0.3931340943364196</v>
+      </c>
+      <c r="C4">
+        <v>0.22686590566358045</v>
       </c>
       <c r="D4" s="2">
         <v>0.38205399084184999</v>
       </c>
       <c r="E4" s="2">
-        <v>3.6646807576113202E-2</v>
+        <v>3.0685801599904049E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>2.6342989499780301E-2</v>
+        <v>4.0806543428109111E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>1.5570572178525401E-2</v>
+        <v>4.7329997703009052E-2</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>0.33903020185543298</v>
+        <v>0.29534909268857851</v>
       </c>
       <c r="K4" s="2">
-        <v>1.6835319398836101E-2</v>
+        <v>5.4498606825059144E-2</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>3.7914274791353798E-3</v>
+        <v>5.4608462913583152E-3</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0.119932655617689</v>
+        <v>0.11998082511909414</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <v>1.16452677067942E-2</v>
+        <v>0.11138608422965923</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -2591,8 +2591,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2604,10 +2613,10 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -2622,7 +2631,7 @@
     <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2758,7 +2767,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2826,27 +2835,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2">
-        <v>0.23108195768918199</v>
+        <v>0.3931340943364196</v>
       </c>
       <c r="C4" s="2">
-        <v>0.38686405146896702</v>
+        <v>0.22686590566358045</v>
       </c>
       <c r="D4" s="2">
         <v>0.38205399084184999</v>
       </c>
       <c r="E4" s="2">
-        <v>3.6646807576113202E-2</v>
+        <v>3.0685801599904049E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>2.6342989499780301E-2</v>
+        <v>4.0806543428109111E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>1.5570572178525401E-2</v>
+        <v>4.7329997703009052E-2</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -2855,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>0.33903020185543298</v>
+        <v>0.29534909268857851</v>
       </c>
       <c r="K4" s="2">
-        <v>1.6835319398836101E-2</v>
+        <v>5.4498606825059144E-2</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>3.7914274791353798E-3</v>
+        <v>5.4608462913583152E-3</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -2873,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0.119932655617689</v>
+        <v>0.11998082511909414</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -2885,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <v>1.16452677067942E-2</v>
+        <v>0.11138608422965923</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
